--- a/Pioppi_Viadana_CaratteriDendrometriciBase.xlsx
+++ b/Pioppi_Viadana_CaratteriDendrometriciBase.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Aggiornamento28giu" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t xml:space="preserve">Tesi</t>
   </si>
@@ -43,6 +44,9 @@
     <t xml:space="preserve">Hfogliaverde</t>
   </si>
   <si>
+    <t xml:space="preserve">DBH_ver1</t>
+  </si>
+  <si>
     <t xml:space="preserve">V400</t>
   </si>
   <si>
@@ -50,6 +54,27 @@
   </si>
   <si>
     <t xml:space="preserve">V500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID pianta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dbh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da misure effettuate in campo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d500</t>
   </si>
 </sst>
 </file>
@@ -59,11 +84,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -80,105 +106,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Sans"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -186,23 +123,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,26 +148,14 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -253,90 +163,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -345,10 +179,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -359,7 +193,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -385,16 +219,19 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>38.5</v>
+      <c r="C2" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>28.5</v>
@@ -408,16 +245,19 @@
       <c r="G2" s="0" t="n">
         <v>8.51</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>38</v>
+      <c r="C3" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>28.4</v>
@@ -431,15 +271,18 @@
       <c r="G3" s="0" t="n">
         <v>8.21</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>36</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -454,16 +297,19 @@
       <c r="G4" s="0" t="n">
         <v>8.35</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>35</v>
+      <c r="C5" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>28.9</v>
@@ -477,39 +323,45 @@
       <c r="G5" s="0" t="n">
         <v>7.41</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="H5" s="0" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="n">
         <v>28.6</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>19.67</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>8.03</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>8.93</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="2" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>39.5</v>
+      <c r="C7" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>29.1</v>
@@ -523,16 +375,19 @@
       <c r="G7" s="0" t="n">
         <v>8.7</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>38.5</v>
+      <c r="C8" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>29</v>
@@ -546,16 +401,19 @@
       <c r="G8" s="0" t="n">
         <v>7.36</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>36.5</v>
+      <c r="C9" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>28.9</v>
@@ -569,16 +427,19 @@
       <c r="G9" s="0" t="n">
         <v>7.79</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>39.5</v>
+      <c r="C10" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>28.4</v>
@@ -592,16 +453,19 @@
       <c r="G10" s="0" t="n">
         <v>6.87</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="0" t="n">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>38.5</v>
+      <c r="C11" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>28.9</v>
@@ -615,16 +479,19 @@
       <c r="G11" s="0" t="n">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>35.5</v>
+      <c r="C12" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>27.6</v>
@@ -638,16 +505,19 @@
       <c r="G12" s="0" t="n">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="0" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>36.5</v>
+      <c r="C13" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>28.4</v>
@@ -661,16 +531,19 @@
       <c r="G13" s="0" t="n">
         <v>8.43</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="0" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>37</v>
+      <c r="C14" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>28.9</v>
@@ -684,16 +557,19 @@
       <c r="G14" s="0" t="n">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>36.5</v>
+      <c r="C15" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>28.2</v>
@@ -707,16 +583,19 @@
       <c r="G15" s="0" t="n">
         <v>7.72</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="0" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>41</v>
+      <c r="C16" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>27.9</v>
@@ -730,16 +609,19 @@
       <c r="G16" s="0" t="n">
         <v>8.03</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>43.5</v>
+      <c r="C17" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>28.3</v>
@@ -753,39 +635,45 @@
       <c r="G17" s="0" t="n">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1" t="n">
+      <c r="H17" s="0" t="n">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>36.5</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2" t="n">
         <v>29.11</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>22.49</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="2" t="n">
         <v>7.08</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="2" t="n">
         <v>6.62</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>38</v>
+      <c r="C19" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>30.14</v>
@@ -799,16 +687,19 @@
       <c r="G19" s="0" t="n">
         <v>8.67</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <v>40.5</v>
+      <c r="C20" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>29.1</v>
@@ -822,16 +713,19 @@
       <c r="G20" s="0" t="n">
         <v>7.46</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>41.5</v>
+      <c r="C21" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>29.3</v>
@@ -845,16 +739,19 @@
       <c r="G21" s="0" t="n">
         <v>7.56</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>41.5</v>
+      <c r="C22" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>29.6</v>
@@ -868,16 +765,19 @@
       <c r="G22" s="0" t="n">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="0" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <v>42.5</v>
+      <c r="C23" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>29.2</v>
@@ -891,16 +791,19 @@
       <c r="G23" s="0" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="0" t="n">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>37</v>
+      <c r="C24" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>26.8</v>
@@ -914,16 +817,19 @@
       <c r="G24" s="0" t="n">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="0" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <v>38.5</v>
+      <c r="C25" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>28.2</v>
@@ -937,16 +843,19 @@
       <c r="G25" s="0" t="n">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>38</v>
+      <c r="C26" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>28.7</v>
@@ -960,16 +869,19 @@
       <c r="G26" s="0" t="n">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="0" t="n">
-        <v>40</v>
+      <c r="C27" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>28.8</v>
@@ -983,16 +895,19 @@
       <c r="G27" s="0" t="n">
         <v>8.91</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>38</v>
+      <c r="C28" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>28.3</v>
@@ -1006,16 +921,19 @@
       <c r="G28" s="0" t="n">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>44</v>
+      <c r="C29" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>28.2</v>
@@ -1029,39 +947,45 @@
       <c r="G29" s="0" t="n">
         <v>8.58</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="n">
+      <c r="H29" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D30" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="n">
         <v>29.1</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>22.36</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30" s="2" t="n">
         <v>5.11</v>
       </c>
-      <c r="G30" s="1" t="n">
+      <c r="G30" s="2" t="n">
         <v>6.74</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="2" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C31" s="0" t="n">
-        <v>38.5</v>
+      <c r="C31" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>29.5</v>
@@ -1075,16 +999,19 @@
       <c r="G31" s="0" t="n">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>38.5</v>
+      <c r="C32" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>29.4</v>
@@ -1098,15 +1025,18 @@
       <c r="G32" s="0" t="n">
         <v>7.28</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="0" t="n">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>44</v>
       </c>
       <c r="D33" s="0" t="n">
@@ -1121,16 +1051,19 @@
       <c r="G33" s="0" t="n">
         <v>8.48</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>44</v>
+      <c r="C34" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>29.1</v>
@@ -1144,16 +1077,19 @@
       <c r="G34" s="0" t="n">
         <v>7.67</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C35" s="0" t="n">
-        <v>40.5</v>
+      <c r="C35" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>29.1</v>
@@ -1167,16 +1103,19 @@
       <c r="G35" s="0" t="n">
         <v>7.48</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="0" t="n">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>28.7</v>
@@ -1190,16 +1129,19 @@
       <c r="G36" s="0" t="n">
         <v>7.68</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="2" t="n">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C37" s="0" t="n">
-        <v>39</v>
+      <c r="C37" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>28.6</v>
@@ -1212,6 +1154,9 @@
       </c>
       <c r="G37" s="0" t="n">
         <v>7.13</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1223,4 +1168,441 @@
     <oddFooter>&amp;CPagina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>